--- a/静态表.xlsx
+++ b/静态表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20736" windowHeight="9348"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20736" windowHeight="9348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1473,11 +1473,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1485,9 +1486,8 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="12.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="38.33203125" style="3" customWidth="1"/>
@@ -1504,11 +1504,11 @@
       <c r="C1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>187</v>
@@ -1517,7 +1517,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -1528,10 +1528,10 @@
         <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>98</v>
@@ -1540,7 +1540,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -1551,10 +1551,10 @@
         <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>98</v>
@@ -1563,7 +1563,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -1573,11 +1573,11 @@
       <c r="C4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>114</v>
@@ -1586,7 +1586,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -1596,11 +1596,11 @@
       <c r="C5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>161</v>
@@ -1609,7 +1609,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="2" t="s">
         <v>119</v>
       </c>
@@ -1620,10 +1620,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>50</v>
@@ -1632,7 +1632,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -1642,11 +1642,11 @@
       <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>121</v>
@@ -1655,7 +1655,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="2" t="s">
         <v>119</v>
       </c>
@@ -1666,10 +1666,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>154</v>
@@ -1678,7 +1678,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
@@ -1688,11 +1688,11 @@
       <c r="C9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>154</v>
@@ -1701,7 +1701,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -1712,10 +1712,10 @@
         <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>98</v>
@@ -1724,7 +1724,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -1735,10 +1735,10 @@
         <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>94</v>
@@ -1747,7 +1747,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -1757,11 +1757,11 @@
       <c r="C12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>114</v>
@@ -1770,7 +1770,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="2" t="s">
         <v>109</v>
       </c>
@@ -1780,11 +1780,11 @@
       <c r="C13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>114</v>
@@ -1793,7 +1793,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="2" t="s">
         <v>109</v>
       </c>
@@ -1803,11 +1803,11 @@
       <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>114</v>
@@ -1816,7 +1816,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="2" t="s">
         <v>109</v>
       </c>
@@ -1826,11 +1826,11 @@
       <c r="C15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>114</v>
@@ -1839,7 +1839,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -1850,10 +1850,10 @@
         <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>98</v>
@@ -1862,7 +1862,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -1872,11 +1872,11 @@
       <c r="C17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>53</v>
@@ -1885,7 +1885,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
@@ -1895,11 +1895,11 @@
       <c r="C18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>114</v>
@@ -1908,7 +1908,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1918,11 +1918,11 @@
       <c r="C19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>114</v>
@@ -1931,7 +1931,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
@@ -1941,11 +1941,11 @@
       <c r="C20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>157</v>
@@ -1954,7 +1954,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
@@ -1964,11 +1964,11 @@
       <c r="C21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>114</v>
@@ -1977,7 +1977,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -1987,11 +1987,11 @@
       <c r="C22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>111</v>
@@ -2000,7 +2000,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
@@ -2010,11 +2010,11 @@
       <c r="C23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>0</v>
@@ -2023,7 +2023,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -2033,11 +2033,11 @@
       <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>65</v>
@@ -2046,7 +2046,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2056,11 +2056,11 @@
       <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>114</v>
@@ -2069,7 +2069,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="2" t="s">
         <v>109</v>
       </c>
@@ -2079,11 +2079,11 @@
       <c r="C26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>116</v>
@@ -2092,7 +2092,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
@@ -2102,11 +2102,11 @@
       <c r="C27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>50</v>
@@ -2115,7 +2115,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
@@ -2125,11 +2125,11 @@
       <c r="C28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>160</v>
@@ -2138,7 +2138,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
@@ -2148,11 +2148,11 @@
       <c r="C29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>118</v>
@@ -2161,7 +2161,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
@@ -2172,10 +2172,10 @@
         <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>95</v>
@@ -2184,7 +2184,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -2195,10 +2195,10 @@
         <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>116</v>
@@ -2207,7 +2207,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
@@ -2218,10 +2218,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>120</v>
@@ -2230,7 +2230,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -2240,11 +2240,11 @@
       <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>121</v>
@@ -2253,7 +2253,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
@@ -2263,11 +2263,11 @@
       <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>161</v>
@@ -2276,7 +2276,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -2287,10 +2287,10 @@
         <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>162</v>
@@ -2299,7 +2299,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>163</v>
@@ -2322,7 +2322,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
@@ -2333,10 +2333,10 @@
         <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>154</v>
@@ -2345,7 +2345,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -2356,10 +2356,10 @@
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>154</v>
@@ -2368,7 +2368,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -2379,10 +2379,10 @@
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>164</v>
@@ -2391,7 +2391,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -2402,10 +2402,10 @@
         <v>152</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>0</v>
@@ -2414,7 +2414,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
@@ -2425,10 +2425,10 @@
         <v>152</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>98</v>
@@ -2437,7 +2437,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -2448,10 +2448,10 @@
         <v>165</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>98</v>
@@ -2460,7 +2460,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -2470,11 +2470,11 @@
       <c r="C43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>124</v>
@@ -2483,7 +2483,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -2494,10 +2494,10 @@
         <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>95</v>
@@ -2506,7 +2506,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2516,11 +2516,11 @@
       <c r="C45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>166</v>
@@ -2529,7 +2529,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
@@ -2540,10 +2540,10 @@
         <v>125</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>114</v>
@@ -2552,7 +2552,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -2563,10 +2563,10 @@
         <v>126</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>116</v>
@@ -2575,7 +2575,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="2" t="s">
         <v>106</v>
       </c>
@@ -2586,10 +2586,10 @@
         <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>162</v>
@@ -2598,7 +2598,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -2609,10 +2609,10 @@
         <v>168</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>154</v>
@@ -2621,7 +2621,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -2655,10 +2655,10 @@
         <v>127</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>95</v>
@@ -2667,7 +2667,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -2678,10 +2678,10 @@
         <v>127</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>0</v>
@@ -2690,7 +2690,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -2746,11 +2746,11 @@
       <c r="C55" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>89</v>
@@ -2759,7 +2759,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -2792,11 +2792,11 @@
       <c r="C57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>114</v>
@@ -2805,7 +2805,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
@@ -2815,11 +2815,11 @@
       <c r="C58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>114</v>
@@ -2828,7 +2828,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
@@ -2838,11 +2838,11 @@
       <c r="C59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>114</v>
@@ -2851,7 +2851,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -2861,11 +2861,11 @@
       <c r="C60" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>114</v>
@@ -2874,7 +2874,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2884,11 +2884,11 @@
       <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>114</v>
@@ -2897,7 +2897,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="2" t="s">
         <v>109</v>
       </c>
@@ -2907,11 +2907,11 @@
       <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>95</v>
@@ -2920,7 +2920,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="2" t="s">
         <v>109</v>
       </c>
@@ -2930,11 +2930,11 @@
       <c r="C63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>53</v>
@@ -2943,7 +2943,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="C64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>132</v>
@@ -2966,7 +2966,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="2" t="s">
         <v>109</v>
       </c>
@@ -2976,11 +2976,11 @@
       <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>134</v>
@@ -2989,7 +2989,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="2" t="s">
         <v>109</v>
       </c>
@@ -2999,11 +2999,11 @@
       <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>170</v>
@@ -3012,7 +3012,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="2" t="s">
         <v>109</v>
       </c>
@@ -3022,11 +3022,11 @@
       <c r="C67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>50</v>
@@ -3035,7 +3035,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="2" t="s">
         <v>109</v>
       </c>
@@ -3045,11 +3045,11 @@
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>50</v>
@@ -3058,7 +3058,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="2" t="s">
         <v>109</v>
       </c>
@@ -3068,11 +3068,11 @@
       <c r="C69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>132</v>
@@ -3081,7 +3081,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="2" t="s">
         <v>109</v>
       </c>
@@ -3091,11 +3091,11 @@
       <c r="C70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>53</v>
@@ -3104,7 +3104,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="2" t="s">
         <v>109</v>
       </c>
@@ -3114,11 +3114,11 @@
       <c r="C71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>114</v>
@@ -3127,7 +3127,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="2" t="s">
         <v>109</v>
       </c>
@@ -3137,11 +3137,11 @@
       <c r="C72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>95</v>
@@ -3150,7 +3150,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="2" t="s">
         <v>109</v>
       </c>
@@ -3160,11 +3160,11 @@
       <c r="C73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>114</v>
@@ -3173,7 +3173,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="2" t="s">
         <v>109</v>
       </c>
@@ -3183,11 +3183,11 @@
       <c r="C74" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>114</v>
@@ -3196,7 +3196,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="2" t="s">
         <v>109</v>
       </c>
@@ -3206,11 +3206,11 @@
       <c r="C75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>137</v>
@@ -3219,7 +3219,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="2" t="s">
         <v>109</v>
       </c>
@@ -3229,11 +3229,11 @@
       <c r="C76" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>114</v>
@@ -3242,7 +3242,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="2" t="s">
         <v>109</v>
       </c>
@@ -3252,11 +3252,11 @@
       <c r="C77" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>95</v>
@@ -3265,7 +3265,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -3275,11 +3275,11 @@
       <c r="C78" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>114</v>
@@ -3288,7 +3288,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="2" t="s">
         <v>109</v>
       </c>
@@ -3298,11 +3298,11 @@
       <c r="C79" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>114</v>
@@ -3311,7 +3311,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -3321,11 +3321,11 @@
       <c r="C80" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>114</v>
@@ -3334,7 +3334,7 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="2" t="s">
         <v>109</v>
       </c>
@@ -3344,11 +3344,11 @@
       <c r="C81" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>114</v>
@@ -3357,7 +3357,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="2" t="s">
         <v>109</v>
       </c>
@@ -3367,11 +3367,11 @@
       <c r="C82" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>114</v>
@@ -3380,7 +3380,7 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="2" t="s">
         <v>109</v>
       </c>
@@ -3390,11 +3390,11 @@
       <c r="C83" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>170</v>
@@ -3403,7 +3403,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="2" t="s">
         <v>109</v>
       </c>
@@ -3413,11 +3413,11 @@
       <c r="C84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>175</v>
@@ -3426,7 +3426,7 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="2" t="s">
         <v>109</v>
       </c>
@@ -3436,11 +3436,11 @@
       <c r="C85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>175</v>
@@ -3449,7 +3449,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
@@ -3459,11 +3459,11 @@
       <c r="C86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>175</v>
@@ -3472,7 +3472,7 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="2" t="s">
         <v>109</v>
       </c>
@@ -3482,11 +3482,11 @@
       <c r="C87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>50</v>
@@ -3495,7 +3495,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="2" t="s">
         <v>109</v>
       </c>
@@ -3505,11 +3505,11 @@
       <c r="C88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>98</v>
@@ -3518,7 +3518,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="2" t="s">
         <v>109</v>
       </c>
@@ -3528,11 +3528,11 @@
       <c r="C89" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>132</v>
@@ -3541,7 +3541,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="2" t="s">
         <v>109</v>
       </c>
@@ -3551,11 +3551,11 @@
       <c r="C90" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>50</v>
@@ -3564,7 +3564,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="2" t="s">
         <v>109</v>
       </c>
@@ -3574,11 +3574,11 @@
       <c r="C91" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>114</v>
@@ -3587,7 +3587,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="2" t="s">
         <v>109</v>
       </c>
@@ -3597,11 +3597,11 @@
       <c r="C92" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>137</v>
@@ -3610,7 +3610,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" s="2" t="s">
         <v>119</v>
       </c>
@@ -3621,10 +3621,10 @@
         <v>83</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>114</v>
@@ -3633,7 +3633,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="2" t="s">
         <v>119</v>
       </c>
@@ -3644,10 +3644,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>53</v>
@@ -3656,7 +3656,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="2" t="s">
         <v>119</v>
       </c>
@@ -3666,11 +3666,11 @@
       <c r="C95" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>139</v>
@@ -3679,7 +3679,7 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -3690,10 +3690,10 @@
         <v>83</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>134</v>
@@ -3702,7 +3702,7 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="2" t="s">
         <v>119</v>
       </c>
@@ -3713,10 +3713,10 @@
         <v>83</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>132</v>
@@ -3725,7 +3725,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -3735,11 +3735,11 @@
       <c r="C98" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>121</v>
@@ -3748,7 +3748,7 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="2" t="s">
         <v>119</v>
       </c>
@@ -3759,10 +3759,10 @@
         <v>83</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>114</v>
@@ -3771,7 +3771,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -3782,10 +3782,10 @@
         <v>83</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>53</v>
@@ -3794,7 +3794,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="2" t="s">
         <v>119</v>
       </c>
@@ -3805,10 +3805,10 @@
         <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>53</v>
@@ -3817,7 +3817,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="2" t="s">
         <v>119</v>
       </c>
@@ -3828,10 +3828,10 @@
         <v>83</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>50</v>
@@ -3840,7 +3840,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="2" t="s">
         <v>119</v>
       </c>
@@ -3851,10 +3851,10 @@
         <v>83</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>163</v>
@@ -3863,7 +3863,7 @@
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="2" t="s">
         <v>119</v>
       </c>
@@ -3874,10 +3874,10 @@
         <v>83</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>0</v>
@@ -3886,7 +3886,7 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="2" t="s">
         <v>119</v>
       </c>
@@ -3897,10 +3897,10 @@
         <v>83</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>98</v>
@@ -3909,7 +3909,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="2" t="s">
         <v>119</v>
       </c>
@@ -3919,11 +3919,11 @@
       <c r="C106" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>139</v>
@@ -3932,7 +3932,7 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="2" t="s">
         <v>119</v>
       </c>
@@ -3943,10 +3943,10 @@
         <v>83</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>170</v>
@@ -3955,7 +3955,7 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="2" t="s">
         <v>119</v>
       </c>
@@ -3966,10 +3966,10 @@
         <v>83</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>176</v>
@@ -3978,7 +3978,7 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
@@ -3989,10 +3989,10 @@
         <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>50</v>
@@ -4001,7 +4001,7 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -4012,10 +4012,10 @@
         <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>50</v>
@@ -4024,7 +4024,7 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
@@ -4035,10 +4035,10 @@
         <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>84</v>
@@ -4047,7 +4047,7 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="2" t="s">
         <v>119</v>
       </c>
@@ -4058,10 +4058,10 @@
         <v>83</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>53</v>
@@ -4070,7 +4070,7 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="2" t="s">
         <v>119</v>
       </c>
@@ -4081,10 +4081,10 @@
         <v>83</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>53</v>
@@ -4093,7 +4093,7 @@
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
@@ -4104,10 +4104,10 @@
         <v>83</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>177</v>
@@ -4116,7 +4116,7 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="2" t="s">
         <v>122</v>
       </c>
@@ -4127,10 +4127,10 @@
         <v>140</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>114</v>
@@ -4139,7 +4139,7 @@
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -4150,10 +4150,10 @@
         <v>152</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>98</v>
@@ -4162,7 +4162,7 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -4173,10 +4173,10 @@
         <v>152</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>98</v>
@@ -4185,7 +4185,7 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="2" t="s">
         <v>122</v>
       </c>
@@ -4196,10 +4196,10 @@
         <v>152</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>98</v>
@@ -4208,7 +4208,7 @@
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="2" t="s">
         <v>122</v>
       </c>
@@ -4219,10 +4219,10 @@
         <v>152</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>98</v>
@@ -4231,7 +4231,7 @@
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -4242,10 +4242,10 @@
         <v>152</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>98</v>
@@ -4254,7 +4254,7 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
@@ -4265,10 +4265,10 @@
         <v>152</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>98</v>
@@ -4277,7 +4277,7 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4288,10 +4288,10 @@
         <v>152</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>98</v>
@@ -4300,7 +4300,7 @@
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4311,10 +4311,10 @@
         <v>152</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>98</v>
@@ -4323,7 +4323,7 @@
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -4334,10 +4334,10 @@
         <v>152</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>98</v>
@@ -4346,7 +4346,7 @@
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
@@ -4357,10 +4357,10 @@
         <v>152</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>98</v>
@@ -4369,7 +4369,7 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
@@ -4380,10 +4380,10 @@
         <v>152</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>53</v>
@@ -4392,7 +4392,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
@@ -4403,10 +4403,10 @@
         <v>165</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>65</v>
@@ -4415,7 +4415,7 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
@@ -4426,10 +4426,10 @@
         <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>50</v>
@@ -4438,7 +4438,7 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="2" t="s">
         <v>122</v>
       </c>
@@ -4449,10 +4449,10 @@
         <v>178</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>50</v>
@@ -4461,7 +4461,7 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="2" t="s">
         <v>122</v>
       </c>
@@ -4472,10 +4472,10 @@
         <v>179</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>50</v>
@@ -4484,7 +4484,7 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
@@ -4495,10 +4495,10 @@
         <v>179</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>50</v>
@@ -4507,7 +4507,7 @@
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="2" t="s">
         <v>122</v>
       </c>
@@ -4518,10 +4518,10 @@
         <v>141</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>114</v>
@@ -4530,7 +4530,7 @@
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
@@ -4541,10 +4541,10 @@
         <v>125</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>114</v>
@@ -4553,7 +4553,7 @@
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="2" t="s">
         <v>122</v>
       </c>
@@ -4564,10 +4564,10 @@
         <v>125</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>114</v>
@@ -4576,7 +4576,7 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" s="2" t="s">
         <v>122</v>
       </c>
@@ -4587,10 +4587,10 @@
         <v>125</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>114</v>
@@ -4599,7 +4599,7 @@
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="2" t="s">
         <v>122</v>
       </c>
@@ -4610,10 +4610,10 @@
         <v>125</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>114</v>
@@ -4622,7 +4622,7 @@
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" s="2" t="s">
         <v>122</v>
       </c>
@@ -4633,10 +4633,10 @@
         <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>114</v>
@@ -4645,7 +4645,7 @@
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="2" t="s">
         <v>122</v>
       </c>
@@ -4656,10 +4656,10 @@
         <v>125</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>53</v>
@@ -4668,7 +4668,7 @@
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="2" t="s">
         <v>122</v>
       </c>
@@ -4679,10 +4679,10 @@
         <v>152</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>98</v>
@@ -4691,7 +4691,7 @@
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="2" t="s">
         <v>122</v>
       </c>
@@ -4702,10 +4702,10 @@
         <v>152</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>98</v>
@@ -4714,7 +4714,7 @@
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" s="2" t="s">
         <v>122</v>
       </c>
@@ -4725,10 +4725,10 @@
         <v>125</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>114</v>
@@ -4737,7 +4737,7 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="2" t="s">
         <v>122</v>
       </c>
@@ -4748,10 +4748,10 @@
         <v>152</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>98</v>
@@ -4760,7 +4760,7 @@
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="2" t="s">
         <v>122</v>
       </c>
@@ -4771,10 +4771,10 @@
         <v>152</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>98</v>
@@ -4783,7 +4783,7 @@
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="2" t="s">
         <v>122</v>
       </c>
@@ -4794,10 +4794,10 @@
         <v>125</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>114</v>
@@ -4806,7 +4806,7 @@
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="2" t="s">
         <v>122</v>
       </c>
@@ -4817,10 +4817,10 @@
         <v>152</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>98</v>
@@ -4829,7 +4829,7 @@
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="2" t="s">
         <v>122</v>
       </c>
@@ -4840,10 +4840,10 @@
         <v>152</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>98</v>
@@ -4852,7 +4852,7 @@
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="2" t="s">
         <v>106</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="2" t="s">
         <v>106</v>
       </c>
@@ -4886,10 +4886,10 @@
         <v>142</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>114</v>
@@ -4898,7 +4898,7 @@
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="2" t="s">
         <v>106</v>
       </c>
@@ -4909,10 +4909,10 @@
         <v>148</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>0</v>
@@ -4921,7 +4921,7 @@
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="2" t="s">
         <v>106</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="2" t="s">
         <v>106</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="2" t="s">
         <v>106</v>
       </c>
@@ -4978,10 +4978,10 @@
         <v>167</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>50</v>
@@ -4990,7 +4990,7 @@
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="2" t="s">
         <v>106</v>
       </c>
@@ -5001,10 +5001,10 @@
         <v>144</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>94</v>
@@ -5013,7 +5013,7 @@
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="2" t="s">
         <v>106</v>
       </c>
@@ -5024,10 +5024,10 @@
         <v>144</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>50</v>
@@ -5036,7 +5036,7 @@
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="2" t="s">
         <v>106</v>
       </c>
@@ -5047,10 +5047,10 @@
         <v>155</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>53</v>
@@ -5059,7 +5059,7 @@
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="2" t="s">
         <v>106</v>
       </c>
@@ -5070,10 +5070,10 @@
         <v>145</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>177</v>
@@ -5082,7 +5082,7 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="2" t="s">
         <v>106</v>
       </c>
@@ -5093,10 +5093,10 @@
         <v>145</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>177</v>
@@ -5105,7 +5105,7 @@
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="2" t="s">
         <v>106</v>
       </c>
@@ -5116,10 +5116,10 @@
         <v>147</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>177</v>
@@ -5128,7 +5128,7 @@
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="12" t="s">
         <v>106</v>
       </c>
@@ -5138,11 +5138,11 @@
       <c r="C159" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E159" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>137</v>
@@ -5151,7 +5151,7 @@
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="2" t="s">
         <v>109</v>
       </c>
@@ -5161,11 +5161,11 @@
       <c r="C160" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>0</v>
@@ -5174,7 +5174,7 @@
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="2" t="s">
         <v>109</v>
       </c>
@@ -5184,11 +5184,11 @@
       <c r="C161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>114</v>
@@ -5197,7 +5197,7 @@
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="2" t="s">
         <v>109</v>
       </c>
@@ -5207,11 +5207,11 @@
       <c r="C162" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>114</v>
@@ -5220,7 +5220,7 @@
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="2" t="s">
         <v>109</v>
       </c>
@@ -5230,11 +5230,11 @@
       <c r="C163" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>114</v>
@@ -5243,7 +5243,7 @@
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="2" t="s">
         <v>109</v>
       </c>
@@ -5253,11 +5253,11 @@
       <c r="C164" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>114</v>
@@ -5266,7 +5266,7 @@
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="2" t="s">
         <v>109</v>
       </c>
@@ -5276,11 +5276,11 @@
       <c r="C165" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>114</v>
@@ -5289,7 +5289,7 @@
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="2" t="s">
         <v>109</v>
       </c>
@@ -5299,11 +5299,11 @@
       <c r="C166" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>114</v>
@@ -5312,7 +5312,7 @@
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="2" t="s">
         <v>122</v>
       </c>
@@ -5323,10 +5323,10 @@
         <v>152</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>98</v>
@@ -5335,7 +5335,7 @@
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="2" t="s">
         <v>122</v>
       </c>
@@ -5346,10 +5346,10 @@
         <v>152</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>98</v>
@@ -5358,7 +5358,7 @@
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="2" t="s">
         <v>106</v>
       </c>
@@ -5369,10 +5369,10 @@
         <v>147</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>53</v>
@@ -5381,7 +5381,7 @@
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="12" t="s">
         <v>106</v>
       </c>
@@ -5392,10 +5392,10 @@
         <v>145</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>95</v>
@@ -5404,7 +5404,7 @@
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="2" t="s">
         <v>106</v>
       </c>
@@ -5415,10 +5415,10 @@
         <v>145</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>0</v>
@@ -5427,7 +5427,7 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="2" t="s">
         <v>109</v>
       </c>
@@ -5437,11 +5437,11 @@
       <c r="C172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>98</v>
@@ -5450,7 +5450,7 @@
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="2" t="s">
         <v>122</v>
       </c>
@@ -5461,10 +5461,10 @@
         <v>125</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>114</v>
@@ -5473,7 +5473,7 @@
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="2" t="s">
         <v>106</v>
       </c>
@@ -5484,10 +5484,10 @@
         <v>147</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>177</v>
@@ -5496,7 +5496,7 @@
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="2" t="s">
         <v>109</v>
       </c>
@@ -5506,11 +5506,11 @@
       <c r="C175" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>95</v>
@@ -5519,7 +5519,7 @@
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="2" t="s">
         <v>109</v>
       </c>
@@ -5529,11 +5529,11 @@
       <c r="C176" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>114</v>
@@ -5542,7 +5542,7 @@
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="2" t="s">
         <v>122</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="2" t="s">
         <v>106</v>
       </c>
@@ -5575,11 +5575,11 @@
       <c r="C178" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>182</v>
@@ -5588,7 +5588,7 @@
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="2" t="s">
         <v>106</v>
       </c>
@@ -5599,10 +5599,10 @@
         <v>147</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>95</v>
@@ -5611,7 +5611,7 @@
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="2" t="s">
         <v>106</v>
       </c>
@@ -5622,10 +5622,10 @@
         <v>108</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>95</v>
@@ -5634,7 +5634,7 @@
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="3" t="s">
         <v>106</v>
       </c>
@@ -5644,11 +5644,11 @@
       <c r="C181" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>95</v>
@@ -5657,7 +5657,7 @@
       <c r="H181" s="15"/>
       <c r="I181" s="15"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="3" t="s">
         <v>106</v>
       </c>
@@ -5667,11 +5667,11 @@
       <c r="C182" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>95</v>
@@ -5680,7 +5680,7 @@
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="3" t="s">
         <v>106</v>
       </c>
@@ -5690,11 +5690,11 @@
       <c r="C183" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>94</v>
@@ -5703,7 +5703,7 @@
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="3" t="s">
         <v>106</v>
       </c>
@@ -5713,10 +5713,10 @@
       <c r="C184" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="D184" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F184" s="3" t="s">
@@ -5726,7 +5726,7 @@
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="11" t="s">
         <v>106</v>
       </c>
@@ -5736,11 +5736,11 @@
       <c r="C185" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D185" s="15" t="s">
+      <c r="D185" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F185" s="15" t="s">
         <v>220</v>
@@ -5749,7 +5749,7 @@
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
     </row>
-    <row r="186" spans="1:9" ht="12.75" customHeight="1">
+    <row r="186" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A186" s="11" t="s">
         <v>106</v>
       </c>
@@ -5759,11 +5759,11 @@
       <c r="C186" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E186" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="F186" s="15" t="s">
         <v>224</v>
@@ -5772,7 +5772,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
     </row>
-    <row r="187" spans="1:9" ht="12.75" customHeight="1">
+    <row r="187" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A187" s="11" t="s">
         <v>106</v>
       </c>
@@ -5782,11 +5782,11 @@
       <c r="C187" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E187" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>224</v>
@@ -5795,7 +5795,7 @@
       <c r="H187" s="15"/>
       <c r="I187" s="15"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="12" t="s">
         <v>106</v>
       </c>
@@ -5805,11 +5805,11 @@
       <c r="C188" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="D188" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E188" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="F188" s="15" t="s">
         <v>224</v>
@@ -5818,7 +5818,7 @@
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="12" t="s">
         <v>106</v>
       </c>
@@ -5828,11 +5828,11 @@
       <c r="C189" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D189" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E189" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="F189" s="15" t="s">
         <v>224</v>
@@ -5841,7 +5841,7 @@
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="12" t="s">
         <v>106</v>
       </c>
@@ -5851,11 +5851,11 @@
       <c r="C190" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E190" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F190" s="15" t="s">
         <v>220</v>
@@ -5864,7 +5864,7 @@
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="12" t="s">
         <v>106</v>
       </c>
@@ -5874,11 +5874,11 @@
       <c r="C191" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E191" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>226</v>
@@ -5897,11 +5897,11 @@
       <c r="C192" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E192" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>95</v>
@@ -5920,11 +5920,11 @@
       <c r="C193" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D193" s="16" t="s">
+      <c r="D193" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E193" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F193" s="15" t="s">
         <v>229</v>
@@ -5943,11 +5943,11 @@
       <c r="C194" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>229</v>
@@ -5966,11 +5966,11 @@
       <c r="C195" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E195" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F195" s="15" t="s">
         <v>226</v>
@@ -5979,7 +5979,7 @@
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="12" t="s">
         <v>106</v>
       </c>
@@ -5989,11 +5989,11 @@
       <c r="C196" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E196" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F196" s="15" t="s">
         <v>232</v>
@@ -6002,7 +6002,7 @@
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="12" t="s">
         <v>122</v>
       </c>
@@ -6012,11 +6012,11 @@
       <c r="C197" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>226</v>
@@ -6025,7 +6025,7 @@
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="12" t="s">
         <v>122</v>
       </c>
@@ -6035,11 +6035,11 @@
       <c r="C198" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>98</v>
@@ -6048,7 +6048,7 @@
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="12" t="s">
         <v>119</v>
       </c>
@@ -6058,11 +6058,11 @@
       <c r="C199" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>232</v>
@@ -6071,7 +6071,7 @@
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="12" t="s">
         <v>109</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>174</v>
       </c>
       <c r="D200" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>232</v>
@@ -6094,7 +6094,7 @@
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" s="12" t="s">
         <v>109</v>
       </c>
@@ -6104,11 +6104,11 @@
       <c r="C201" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>233</v>
@@ -6117,7 +6117,7 @@
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="12" t="s">
         <v>109</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="C202" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>233</v>
@@ -6140,7 +6140,7 @@
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" s="12" t="s">
         <v>109</v>
       </c>
@@ -6150,11 +6150,11 @@
       <c r="C203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E203" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>233</v>
@@ -6163,7 +6163,7 @@
       <c r="H203" s="15"/>
       <c r="I203" s="15"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" s="12" t="s">
         <v>109</v>
       </c>
@@ -6173,11 +6173,11 @@
       <c r="C204" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>233</v>
@@ -6186,7 +6186,7 @@
       <c r="H204" s="15"/>
       <c r="I204" s="15"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" s="12" t="s">
         <v>109</v>
       </c>
@@ -6197,10 +6197,10 @@
         <v>136</v>
       </c>
       <c r="D205" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E205" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>226</v>
@@ -6209,7 +6209,7 @@
       <c r="H205" s="15"/>
       <c r="I205" s="15"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" s="12" t="s">
         <v>109</v>
       </c>
@@ -6220,10 +6220,10 @@
         <v>136</v>
       </c>
       <c r="D206" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E206" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>224</v>
@@ -6232,7 +6232,7 @@
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="12" t="s">
         <v>109</v>
       </c>
@@ -6243,10 +6243,10 @@
         <v>136</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>224</v>
@@ -6255,7 +6255,7 @@
       <c r="H207" s="15"/>
       <c r="I207" s="15"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" s="12" t="s">
         <v>109</v>
       </c>
@@ -6266,10 +6266,10 @@
         <v>136</v>
       </c>
       <c r="D208" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>224</v>
@@ -6278,7 +6278,7 @@
       <c r="H208" s="15"/>
       <c r="I208" s="15"/>
     </row>
-    <row r="209" spans="1:9" ht="12.75" customHeight="1">
+    <row r="209" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A209" s="11" t="s">
         <v>106</v>
       </c>
@@ -6288,11 +6288,11 @@
       <c r="C209" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D209" s="15" t="s">
+      <c r="D209" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E209" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="F209" s="15" t="s">
         <v>224</v>
@@ -6301,7 +6301,7 @@
       <c r="H209" s="15"/>
       <c r="I209" s="15"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" s="11" t="s">
         <v>106</v>
       </c>
@@ -6311,11 +6311,11 @@
       <c r="C210" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D210" s="15" t="s">
+      <c r="D210" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E210" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="F210" s="15" t="s">
         <v>224</v>
@@ -6324,7 +6324,7 @@
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="11" t="s">
         <v>106</v>
       </c>
@@ -6334,11 +6334,11 @@
       <c r="C211" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D211" s="15" t="s">
+      <c r="D211" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E211" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="F211" s="15" t="s">
         <v>224</v>
@@ -6347,7 +6347,7 @@
       <c r="H211" s="15"/>
       <c r="I211" s="15"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" s="12" t="s">
         <v>106</v>
       </c>
@@ -6357,11 +6357,11 @@
       <c r="C212" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D212" s="15" t="s">
+      <c r="D212" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E212" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="F212" s="15" t="s">
         <v>224</v>
@@ -6370,7 +6370,7 @@
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" s="12" t="s">
         <v>106</v>
       </c>
@@ -6380,11 +6380,11 @@
       <c r="C213" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D213" s="15" t="s">
+      <c r="D213" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="F213" s="15" t="s">
         <v>224</v>
@@ -6393,7 +6393,7 @@
       <c r="H213" s="15"/>
       <c r="I213" s="15"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" s="12" t="s">
         <v>106</v>
       </c>
@@ -6403,11 +6403,11 @@
       <c r="C214" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D214" s="15" t="s">
+      <c r="D214" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E214" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E214" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="F214" s="15" t="s">
         <v>224</v>
@@ -6418,8 +6418,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J214">
-    <filterColumn colId="0"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="中国银行"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="转账收入"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="无"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/静态表.xlsx
+++ b/静态表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="245">
   <si>
     <t>材料款</t>
   </si>
@@ -789,6 +789,34 @@
   </si>
   <si>
     <t>承兑确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元汇率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日元汇率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易时间字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易时间戳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易时间[ Transaction time ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1250,24 +1278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="2" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>167</v>
       </c>
@@ -1275,86 +1303,117 @@
         <v>209</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2">
+      <c r="J2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2">
+        <v>6.4870999999999999</v>
+      </c>
+      <c r="M2">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3">
+        <v>6.4870999999999999</v>
+      </c>
+      <c r="M3">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -1362,28 +1421,38 @@
         <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4">
+      <c r="J4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4">
+        <v>6.4870999999999999</v>
+      </c>
+      <c r="M4">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>172</v>
       </c>
@@ -1391,54 +1460,74 @@
         <v>211</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5">
+      <c r="J5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6">
+      <c r="L5">
+        <v>6.4870999999999999</v>
+      </c>
+      <c r="M5">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="57.6">
       <c r="A6" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>9</v>
+      </c>
+      <c r="L6">
+        <v>6.4870999999999999</v>
+      </c>
+      <c r="M6">
+        <v>5.3900000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1450,11 +1539,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1493,7 +1583,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1">
+    <row r="2" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1516,7 +1606,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1539,7 +1629,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+    <row r="4" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1585,7 +1675,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1631,7 +1721,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+    <row r="8" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -1654,7 +1744,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -1677,7 +1767,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
+    <row r="10" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -1700,7 +1790,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+    <row r="11" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -1723,7 +1813,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
@@ -1743,7 +1833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+    <row r="13" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -1766,7 +1856,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1">
+    <row r="14" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -1789,7 +1879,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
+    <row r="15" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1812,7 +1902,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -1832,7 +1922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+    <row r="17" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -1855,7 +1945,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+    <row r="18" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1878,7 +1968,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+    <row r="19" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
@@ -1901,7 +1991,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+    <row r="20" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -1924,7 +2014,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+    <row r="21" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -1947,7 +2037,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+    <row r="22" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -1970,7 +2060,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+    <row r="23" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1993,7 +2083,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+    <row r="24" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -2016,7 +2106,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+    <row r="25" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -2039,7 +2129,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
+    <row r="26" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -2062,7 +2152,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
+    <row r="27" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
@@ -2085,7 +2175,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2108,7 +2198,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1">
+    <row r="29" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -2131,7 +2221,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+    <row r="30" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -2154,7 +2244,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+    <row r="31" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2246,7 +2336,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+    <row r="35" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -2269,7 +2359,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+    <row r="36" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>94</v>
       </c>
@@ -2292,7 +2382,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+    <row r="37" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -2315,7 +2405,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+    <row r="38" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
@@ -2338,7 +2428,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+    <row r="39" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -2361,7 +2451,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1">
+    <row r="40" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -2384,7 +2474,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1">
+    <row r="41" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -2407,7 +2497,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1">
+    <row r="42" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -2430,7 +2520,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1">
+    <row r="43" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
@@ -2453,7 +2543,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1">
+    <row r="44" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>95</v>
       </c>
@@ -2476,7 +2566,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1">
+    <row r="45" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -2499,7 +2589,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1">
+    <row r="46" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -2522,7 +2612,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1">
+    <row r="47" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2545,7 +2635,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1">
+    <row r="48" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -2568,7 +2658,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
@@ -2591,7 +2681,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -2614,7 +2704,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>82</v>
       </c>
@@ -2637,7 +2727,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
@@ -2660,7 +2750,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+    <row r="53" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>82</v>
       </c>
@@ -2683,7 +2773,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+    <row r="54" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
@@ -2706,7 +2796,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+    <row r="55" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -2729,7 +2819,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
+    <row r="56" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>85</v>
       </c>
@@ -2752,7 +2842,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
+    <row r="57" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2865,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
+    <row r="58" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -2798,7 +2888,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
+    <row r="59" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>85</v>
       </c>
@@ -2821,7 +2911,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
+    <row r="60" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>85</v>
       </c>
@@ -2844,7 +2934,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+    <row r="61" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>85</v>
       </c>
@@ -2867,7 +2957,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+    <row r="62" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>85</v>
       </c>
@@ -2890,7 +2980,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="2" t="s">
         <v>85</v>
       </c>
@@ -2913,7 +3003,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+    <row r="64" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>85</v>
       </c>
@@ -2936,7 +3026,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+    <row r="65" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>85</v>
       </c>
@@ -2959,7 +3049,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="66" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>85</v>
       </c>
@@ -2979,7 +3069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="2" t="s">
         <v>85</v>
       </c>
@@ -3002,7 +3092,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+    <row r="68" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>85</v>
       </c>
@@ -3025,7 +3115,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+    <row r="69" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
@@ -3048,7 +3138,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+    <row r="70" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>85</v>
       </c>
@@ -3071,7 +3161,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+    <row r="71" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -3094,7 +3184,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+    <row r="72" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -3117,7 +3207,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+    <row r="73" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>85</v>
       </c>
@@ -3140,7 +3230,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
+    <row r="74" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>85</v>
       </c>
@@ -3163,7 +3253,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
+    <row r="75" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
@@ -3186,7 +3276,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
+    <row r="76" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -3209,7 +3299,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1">
+    <row r="77" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
@@ -3232,7 +3322,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" ht="13.5" customHeight="1">
+    <row r="78" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
@@ -3255,7 +3345,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1">
+    <row r="79" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
@@ -3278,7 +3368,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1">
+    <row r="80" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -3301,7 +3391,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="81" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -3321,7 +3411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -3344,7 +3434,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" ht="13.5" customHeight="1">
+    <row r="83" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -3367,7 +3457,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9" ht="13.5" customHeight="1">
+    <row r="84" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
@@ -3390,7 +3480,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9" ht="13.5" customHeight="1">
+    <row r="85" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -3436,7 +3526,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" ht="13.5" customHeight="1">
+    <row r="87" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -3459,7 +3549,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" ht="13.5" customHeight="1">
+    <row r="88" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -3482,7 +3572,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1">
+    <row r="89" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -3528,7 +3618,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" ht="13.5" customHeight="1">
+    <row r="91" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -3597,7 +3687,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" ht="13.5" customHeight="1">
+    <row r="94" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -3620,7 +3710,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" ht="13.5" customHeight="1">
+    <row r="95" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3643,7 +3733,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1">
+    <row r="96" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -3666,7 +3756,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" ht="13.5" customHeight="1">
+    <row r="97" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -3689,7 +3779,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" ht="13.5" customHeight="1">
+    <row r="98" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -3712,7 +3802,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" ht="13.5" customHeight="1">
+    <row r="99" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
@@ -3758,7 +3848,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1">
+    <row r="101" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -3781,7 +3871,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1">
+    <row r="102" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>94</v>
       </c>
@@ -3804,7 +3894,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1">
+    <row r="103" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -3873,7 +3963,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9" ht="13.5" customHeight="1">
+    <row r="106" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>94</v>
       </c>
@@ -3896,7 +3986,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="1:9" ht="13.5" customHeight="1">
+    <row r="107" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -3919,7 +4009,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="1:9" ht="13.5" customHeight="1">
+    <row r="108" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -3942,7 +4032,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" spans="1:9" ht="13.5" customHeight="1">
+    <row r="109" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -3965,7 +4055,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="1:9" ht="13.5" customHeight="1">
+    <row r="110" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -3988,7 +4078,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="1:9" ht="13.5" customHeight="1">
+    <row r="111" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -4011,7 +4101,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" spans="1:9" ht="13.5" customHeight="1">
+    <row r="112" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -4034,7 +4124,7 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" spans="1:9" ht="13.5" customHeight="1">
+    <row r="113" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -4057,7 +4147,7 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" spans="1:9" ht="13.5" customHeight="1">
+    <row r="114" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -4080,7 +4170,7 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" spans="1:9" ht="13.5" customHeight="1">
+    <row r="115" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -4103,7 +4193,7 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" spans="1:9" ht="13.5" customHeight="1">
+    <row r="116" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -4126,7 +4216,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" ht="13.5" customHeight="1">
+    <row r="117" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -4149,7 +4239,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" ht="13.5" customHeight="1">
+    <row r="118" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -4172,7 +4262,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" ht="13.5" customHeight="1">
+    <row r="119" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -4195,7 +4285,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" ht="13.5" customHeight="1">
+    <row r="120" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -4218,7 +4308,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" ht="13.5" customHeight="1">
+    <row r="121" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>95</v>
       </c>
@@ -4241,7 +4331,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9" ht="13.5" customHeight="1">
+    <row r="122" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>95</v>
       </c>
@@ -4264,7 +4354,7 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9" ht="13.5" customHeight="1">
+    <row r="123" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>95</v>
       </c>
@@ -4287,7 +4377,7 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="13.5" customHeight="1">
+    <row r="124" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>95</v>
       </c>
@@ -4310,7 +4400,7 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9" ht="13.5" customHeight="1">
+    <row r="125" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>95</v>
       </c>
@@ -4333,7 +4423,7 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" spans="1:9" ht="13.5" customHeight="1">
+    <row r="126" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>95</v>
       </c>
@@ -4356,7 +4446,7 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" spans="1:9" ht="13.5" customHeight="1">
+    <row r="127" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>95</v>
       </c>
@@ -4379,7 +4469,7 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="128" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>95</v>
       </c>
@@ -4399,7 +4489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="14" customFormat="1" ht="13.5" customHeight="1">
+    <row r="129" spans="1:9" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>95</v>
       </c>
@@ -4419,7 +4509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="13.5" customHeight="1">
+    <row r="130" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>82</v>
       </c>
@@ -4442,7 +4532,7 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" spans="1:9" ht="13.5" customHeight="1">
+    <row r="131" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>82</v>
       </c>
@@ -4465,7 +4555,7 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" spans="1:9" ht="13.5" customHeight="1">
+    <row r="132" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>82</v>
       </c>
@@ -4488,7 +4578,7 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" spans="1:9" ht="13.5" customHeight="1">
+    <row r="133" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>82</v>
       </c>
@@ -4511,7 +4601,7 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" spans="1:9" ht="13.5" customHeight="1">
+    <row r="134" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>82</v>
       </c>
@@ -4534,7 +4624,7 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" spans="1:9" ht="13.5" customHeight="1">
+    <row r="135" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>82</v>
       </c>
@@ -4557,7 +4647,7 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" spans="1:9" ht="13.5" customHeight="1">
+    <row r="136" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>82</v>
       </c>
@@ -4580,7 +4670,7 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" spans="1:9" ht="13.5" customHeight="1">
+    <row r="137" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>82</v>
       </c>
@@ -4603,7 +4693,7 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" spans="1:9" ht="13.5" customHeight="1">
+    <row r="138" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>82</v>
       </c>
@@ -4626,7 +4716,7 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" spans="1:9" ht="13.5" customHeight="1">
+    <row r="139" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>82</v>
       </c>
@@ -4649,7 +4739,7 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" spans="1:9" ht="13.5" customHeight="1">
+    <row r="140" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>82</v>
       </c>
@@ -4672,7 +4762,7 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="13.5" customHeight="1">
+    <row r="141" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>82</v>
       </c>
@@ -4695,7 +4785,7 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="13.5" customHeight="1">
+    <row r="142" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A142" s="12" t="s">
         <v>82</v>
       </c>
@@ -4718,7 +4808,7 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9" ht="13.5" customHeight="1">
+    <row r="143" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>85</v>
       </c>
@@ -4741,7 +4831,7 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" spans="1:9" ht="13.5" customHeight="1">
+    <row r="144" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>85</v>
       </c>
@@ -4764,7 +4854,7 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" spans="1:9" ht="13.5" customHeight="1">
+    <row r="145" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>85</v>
       </c>
@@ -4787,7 +4877,7 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:9" ht="13.5" customHeight="1">
+    <row r="146" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>85</v>
       </c>
@@ -4810,7 +4900,7 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" spans="1:9" ht="13.5" customHeight="1">
+    <row r="147" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>85</v>
       </c>
@@ -4833,7 +4923,7 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" spans="1:9" ht="13.5" customHeight="1">
+    <row r="148" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>82</v>
       </c>
@@ -4856,7 +4946,7 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" spans="1:9" ht="13.5" customHeight="1">
+    <row r="149" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A149" s="12" t="s">
         <v>82</v>
       </c>
@@ -4879,7 +4969,7 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" spans="1:9" ht="13.5" customHeight="1">
+    <row r="150" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>82</v>
       </c>
@@ -4902,7 +4992,7 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" spans="1:9" ht="13.5" customHeight="1">
+    <row r="151" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>85</v>
       </c>
@@ -4925,7 +5015,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="13.5" customHeight="1">
+    <row r="152" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>85</v>
       </c>
@@ -4948,7 +5038,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="13.5" customHeight="1">
+    <row r="153" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>85</v>
       </c>
@@ -4971,7 +5061,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="13.5" customHeight="1">
+    <row r="154" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>95</v>
       </c>
@@ -4994,7 +5084,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="13.5" customHeight="1">
+    <row r="155" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A155" s="12" t="s">
         <v>82</v>
       </c>
@@ -5017,7 +5107,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="13.5" customHeight="1">
+    <row r="156" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>82</v>
       </c>
@@ -5040,7 +5130,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="13.5" customHeight="1">
+    <row r="157" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>82</v>
       </c>
@@ -5063,7 +5153,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="13.5" customHeight="1">
+    <row r="158" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>82</v>
       </c>
@@ -5086,7 +5176,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="13.5" customHeight="1">
+    <row r="159" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>82</v>
       </c>
@@ -5109,7 +5199,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="13.5" customHeight="1">
+    <row r="160" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>82</v>
       </c>
@@ -5132,7 +5222,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="13.5" customHeight="1">
+    <row r="161" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>82</v>
       </c>
@@ -5155,7 +5245,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="13.5" customHeight="1">
+    <row r="162" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A162" s="11" t="s">
         <v>82</v>
       </c>
@@ -5178,7 +5268,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="12.75" customHeight="1">
+    <row r="163" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A163" s="11" t="s">
         <v>82</v>
       </c>
@@ -5201,7 +5291,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="12.75" customHeight="1">
+    <row r="164" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A164" s="11" t="s">
         <v>82</v>
       </c>
@@ -5224,7 +5314,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="13.5" customHeight="1">
+    <row r="165" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A165" s="12" t="s">
         <v>82</v>
       </c>
@@ -5247,7 +5337,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="13.5" customHeight="1">
+    <row r="166" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A166" s="12" t="s">
         <v>82</v>
       </c>
@@ -5270,7 +5360,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="13.5" customHeight="1">
+    <row r="167" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A167" s="12" t="s">
         <v>82</v>
       </c>
@@ -5293,7 +5383,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="13.5" customHeight="1">
+    <row r="168" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A168" s="12" t="s">
         <v>82</v>
       </c>
@@ -5316,7 +5406,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="13.5" customHeight="1">
+    <row r="169" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A169" s="12" t="s">
         <v>82</v>
       </c>
@@ -5339,7 +5429,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="13.5" customHeight="1">
+    <row r="170" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A170" s="12" t="s">
         <v>82</v>
       </c>
@@ -5362,7 +5452,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="13.5" customHeight="1">
+    <row r="171" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A171" s="12" t="s">
         <v>82</v>
       </c>
@@ -5385,7 +5475,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="13.5" customHeight="1">
+    <row r="172" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A172" s="12" t="s">
         <v>82</v>
       </c>
@@ -5408,7 +5498,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="13.5" customHeight="1">
+    <row r="173" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A173" s="12" t="s">
         <v>82</v>
       </c>
@@ -5431,7 +5521,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="13.5" customHeight="1">
+    <row r="174" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A174" s="12" t="s">
         <v>95</v>
       </c>
@@ -5454,7 +5544,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="13.5" customHeight="1">
+    <row r="175" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A175" s="12" t="s">
         <v>95</v>
       </c>
@@ -5477,7 +5567,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="13.5" customHeight="1">
+    <row r="176" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A176" s="12" t="s">
         <v>94</v>
       </c>
@@ -5500,7 +5590,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="13.5" customHeight="1">
+    <row r="177" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A177" s="12" t="s">
         <v>85</v>
       </c>
@@ -5523,7 +5613,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="13.5" customHeight="1">
+    <row r="178" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A178" s="12" t="s">
         <v>85</v>
       </c>
@@ -5546,7 +5636,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="13.5" customHeight="1">
+    <row r="179" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A179" s="12" t="s">
         <v>85</v>
       </c>
@@ -5569,7 +5659,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="13.5" customHeight="1">
+    <row r="180" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A180" s="12" t="s">
         <v>85</v>
       </c>
@@ -5592,7 +5682,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="13.5" customHeight="1">
+    <row r="181" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A181" s="12" t="s">
         <v>85</v>
       </c>
@@ -5615,7 +5705,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="13.5" customHeight="1">
+    <row r="182" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A182" s="12" t="s">
         <v>85</v>
       </c>
@@ -5638,7 +5728,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="13.5" customHeight="1">
+    <row r="183" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A183" s="12" t="s">
         <v>85</v>
       </c>
@@ -5661,7 +5751,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="13.5" customHeight="1">
+    <row r="184" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A184" s="12" t="s">
         <v>85</v>
       </c>
@@ -5684,7 +5774,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="13.5" customHeight="1">
+    <row r="185" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A185" s="12" t="s">
         <v>85</v>
       </c>
@@ -5707,7 +5797,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="12.75" customHeight="1">
+    <row r="186" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A186" s="11" t="s">
         <v>82</v>
       </c>
@@ -5730,7 +5820,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="13.5" customHeight="1">
+    <row r="187" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A187" s="11" t="s">
         <v>82</v>
       </c>
@@ -5753,7 +5843,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="13.5" customHeight="1">
+    <row r="188" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A188" s="11" t="s">
         <v>82</v>
       </c>
@@ -5776,7 +5866,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="13.5" customHeight="1">
+    <row r="189" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A189" s="12" t="s">
         <v>82</v>
       </c>
@@ -5799,7 +5889,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="13.5" customHeight="1">
+    <row r="190" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A190" s="12" t="s">
         <v>82</v>
       </c>
@@ -5822,7 +5912,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="13.5" customHeight="1">
+    <row r="191" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A191" s="12" t="s">
         <v>82</v>
       </c>
@@ -5845,7 +5935,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="13.5" customHeight="1">
+    <row r="192" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A192" s="12" t="s">
         <v>85</v>
       </c>
@@ -5865,7 +5955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.5" customHeight="1">
+    <row r="193" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>85</v>
       </c>
@@ -5885,7 +5975,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13.5" customHeight="1">
+    <row r="194" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>225</v>
       </c>
@@ -5905,7 +5995,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13.5" customHeight="1">
+    <row r="195" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>225</v>
       </c>
@@ -5925,15 +6015,24 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.5" customHeight="1">
+    <row r="196" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="C196" s="2"/>
       <c r="F196" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J196">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="浦发银行"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="资金划拨"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/静态表.xlsx
+++ b/静态表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20736" windowHeight="9348"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">判断条件!$A$1:$J$196</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="248">
   <si>
     <t>材料款</t>
   </si>
@@ -818,6 +818,15 @@
   <si>
     <t>时间格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>%H%M%S</t>
+  </si>
+  <si>
+    <t>%H:%M:%S</t>
+  </si>
+  <si>
+    <t>%H%M%S,9,15</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,7 +858,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1281,7 +1290,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1344,7 +1353,9 @@
       <c r="B2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>156</v>
@@ -1384,7 +1395,9 @@
       <c r="C3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>161</v>
       </c>
@@ -1423,7 +1436,9 @@
       <c r="C4" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>170</v>
       </c>
@@ -1462,7 +1477,9 @@
       <c r="C5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
       </c>
@@ -1501,7 +1518,9 @@
       <c r="C6" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>181</v>
       </c>
@@ -1543,7 +1562,7 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +1579,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>

--- a/静态表.xlsx
+++ b/静态表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20736" windowHeight="9348"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">判断条件!$A$1:$J$196</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -826,7 +826,8 @@
     <t>%H:%M:%S</t>
   </si>
   <si>
-    <t>%H%M%S,9,15</t>
+    <t>%H%M%S,9,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,7 +838,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -858,7 +859,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1290,7 +1291,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1579,7 +1580,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
